--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091F6C32-1D97-4936-87F1-72879B51B7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62B6EA-8C4C-4A0B-80EA-5B15BA336441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>JANUARY</t>
+  </si>
+  <si>
+    <t>NO TRIP</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -975,8 +978,10 @@
         <v>46024</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="39"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4881,11 +4886,12 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C34:F34"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4897,7 +4903,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5120,8 +5126,10 @@
         <v>46024</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="39"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -9026,11 +9034,12 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C34:F34"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9042,7 +9051,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9266,7 +9275,9 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>3381</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -10012,7 +10023,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>3381</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E83F34E-6D21-4889-AC11-03FEB2DECF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C1D0AA-56D4-4045-A27A-70D6CE00B25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1079,7 +1079,9 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>122.75</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1731,7 +1733,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>122.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4907,7 +4909,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5230,7 +5232,9 @@
         <v>46028</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15">
+        <v>1937</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -5879,7 +5883,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>201</v>
+        <v>2138</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9060,7 +9064,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9383,7 +9387,9 @@
         <v>46028</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15">
+        <v>124.5</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -10032,7 +10038,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>506.75</v>
+        <v>631.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C1D0AA-56D4-4045-A27A-70D6CE00B25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0016E8-5027-4045-A7E7-3A7208451DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -139,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +231,11 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -343,7 +348,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +417,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -755,7 +761,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1103,7 +1109,9 @@
         <v>46029</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="36">
+        <v>350.5</v>
+      </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="1"/>
@@ -1729,7 +1737,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>44605.5</v>
+        <v>44956</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4909,7 +4917,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5258,7 +5266,9 @@
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="E16" s="40">
+        <v>53.5</v>
+      </c>
       <c r="F16" s="36"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5887,7 +5897,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9064,7 +9074,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9412,7 +9422,9 @@
         <v>46029</v>
       </c>
       <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="36">
+        <v>171.5</v>
+      </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="1"/>
@@ -10038,7 +10050,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>631.25</v>
+        <v>802.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0016E8-5027-4045-A7E7-3A7208451DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92713A52-6218-4616-B08D-61E83AE7E79A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -408,6 +408,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,7 +418,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -984,10 +984,10 @@
         <v>46024</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1033,12 +1033,12 @@
       <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1134,7 +1134,9 @@
         <v>46030</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>1459</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
@@ -1202,12 +1204,12 @@
       <c r="B20" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1365,12 +1367,12 @@
       <c r="B27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -1528,12 +1530,12 @@
       <c r="B34" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
@@ -1737,7 +1739,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>44956</v>
+        <v>46415</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4917,7 +4919,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5140,10 +5142,10 @@
         <v>46024</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5165,10 +5167,10 @@
         <v>46025</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5189,12 +5191,12 @@
       <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -5266,7 +5268,7 @@
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="40">
+      <c r="E16" s="37">
         <v>53.5</v>
       </c>
       <c r="F16" s="36"/>
@@ -5291,7 +5293,9 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>4063.75</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5358,12 +5362,12 @@
       <c r="B20" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5521,12 +5525,12 @@
       <c r="B27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -5684,12 +5688,12 @@
       <c r="B34" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
@@ -5897,7 +5901,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>53.5</v>
+        <v>4117.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9073,8 +9077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9346,12 +9350,12 @@
       <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -9447,7 +9451,9 @@
         <v>46030</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>79.25</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
       <c r="G17" s="1"/>
@@ -9515,12 +9521,12 @@
       <c r="B20" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -9678,12 +9684,12 @@
       <c r="B27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -9841,12 +9847,12 @@
       <c r="B34" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
@@ -10050,7 +10056,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>802.75</v>
+        <v>882</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92713A52-6218-4616-B08D-61E83AE7E79A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EBFD49-9335-477B-A31D-3FEC8E19B9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -961,8 +961,10 @@
         <v>46023</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="40"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1159,7 +1161,9 @@
         <v>46031</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>30</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -1739,7 +1743,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>46415</v>
+        <v>46445</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4902,7 +4906,8 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C27:F27"/>
@@ -4919,7 +4924,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5119,8 +5124,10 @@
         <v>46023</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="40"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -5317,7 +5324,9 @@
         <v>46031</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <v>1560.83</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
@@ -5897,7 +5906,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2138</v>
+        <v>3698.83</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9060,7 +9069,8 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C27:F27"/>
@@ -9077,8 +9087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9278,8 +9288,10 @@
         <v>46023</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="40"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -9477,7 +9489,9 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>141.5</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -10060,7 +10074,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4514.25</v>
+        <v>4655.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -13219,11 +13233,12 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C34:F34"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EBFD49-9335-477B-A31D-3FEC8E19B9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF9357-8C1E-451B-B3FA-F96D42A599AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -412,10 +412,10 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +964,7 @@
       <c r="D10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -989,7 +989,7 @@
       <c r="D11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1038,9 +1038,9 @@
       <c r="C13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1211,9 +1211,9 @@
       <c r="C20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1374,9 +1374,9 @@
       <c r="C27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -1537,9 +1537,9 @@
       <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
@@ -5127,7 +5127,7 @@
       <c r="D10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -5152,7 +5152,7 @@
       <c r="D11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5177,7 +5177,7 @@
       <c r="D12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5201,9 +5201,9 @@
       <c r="C13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -5374,9 +5374,9 @@
       <c r="C20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5537,9 +5537,9 @@
       <c r="C27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -5700,9 +5700,9 @@
       <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
@@ -9291,7 +9291,7 @@
       <c r="D10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -9365,9 +9365,9 @@
       <c r="C13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -9538,9 +9538,9 @@
       <c r="C20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -9701,9 +9701,9 @@
       <c r="C27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -9864,9 +9864,9 @@
       <c r="C34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF9357-8C1E-451B-B3FA-F96D42A599AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BD0637-0B55-45BB-BF31-B3898A118A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,6 +418,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -760,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1187,7 +1188,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
+      <c r="E19" s="41">
+        <v>53.75</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1747,7 +1750,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>122.75</v>
+        <v>176.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4924,7 +4927,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5350,7 +5353,9 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
+      <c r="E19" s="41">
+        <v>184.5</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5910,7 +5915,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4117.25</v>
+        <v>4301.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9087,8 +9092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9513,7 +9518,9 @@
         <v>46032</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="36"/>
+      <c r="D19" s="36">
+        <v>84.75</v>
+      </c>
       <c r="E19" s="35"/>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
@@ -10070,7 +10077,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>882</v>
+        <v>966.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BD0637-0B55-45BB-BF31-B3898A118A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB33FB7-C39E-46AF-8E37-70D3DDDF5299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -409,6 +409,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,7 +419,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -962,10 +962,10 @@
         <v>46023</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -987,10 +987,10 @@
         <v>46024</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1036,12 +1036,12 @@
       <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="41">
+      <c r="E19" s="38">
         <v>53.75</v>
       </c>
       <c r="F19" s="11"/>
@@ -1211,12 +1211,12 @@
       <c r="B20" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1237,7 +1237,9 @@
         <v>46034</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="13">
+        <v>814.25</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
@@ -1374,12 +1376,12 @@
       <c r="B27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -1537,12 +1539,12 @@
       <c r="B34" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
@@ -1746,7 +1748,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>46445</v>
+        <v>47259.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4927,7 +4929,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5127,10 +5129,10 @@
         <v>46023</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -5152,10 +5154,10 @@
         <v>46024</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5177,10 +5179,10 @@
         <v>46025</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5201,12 +5203,12 @@
       <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -5353,7 +5355,7 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="41">
+      <c r="E19" s="38">
         <v>184.5</v>
       </c>
       <c r="F19" s="11"/>
@@ -5376,12 +5378,12 @@
       <c r="B20" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5402,7 +5404,9 @@
         <v>46034</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="13">
+        <v>71.25</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
@@ -5539,12 +5543,12 @@
       <c r="B27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -5702,12 +5706,12 @@
       <c r="B34" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
@@ -5911,7 +5915,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3698.83</v>
+        <v>3770.08</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9093,7 +9097,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9293,10 +9297,10 @@
         <v>46023</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -9367,12 +9371,12 @@
       <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="39"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -9542,12 +9546,12 @@
       <c r="B20" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -9568,7 +9572,9 @@
         <v>46034</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="13">
+        <v>692.5</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
@@ -9705,12 +9711,12 @@
       <c r="B27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
@@ -9868,12 +9874,12 @@
       <c r="B34" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="39"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="7"/>
@@ -10077,7 +10083,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>966.75</v>
+        <v>1659.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB33FB7-C39E-46AF-8E37-70D3DDDF5299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA25608A-FD4C-4DA6-9651-F8E5C80198F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1263,7 +1263,9 @@
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>336</v>
+      </c>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1752,7 +1754,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>176.5</v>
+        <v>512.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4929,7 +4931,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5429,7 +5431,9 @@
         <v>46035</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15">
+        <v>920.83</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
@@ -5915,7 +5919,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3770.08</v>
+        <v>4690.91</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9096,8 +9100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9598,7 +9602,9 @@
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <v>65.75</v>
+      </c>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -10087,7 +10093,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4655.75</v>
+        <v>4721.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA25608A-FD4C-4DA6-9651-F8E5C80198F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB615E3E-2AA5-46A8-9F61-D139A993E170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1287,8 +1287,10 @@
         <v>46036</v>
       </c>
       <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="D23" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="40"/>
       <c r="F23" s="36"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4913,13 +4915,14 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4931,7 +4934,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5457,7 +5460,9 @@
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="E23" s="37">
+        <v>25.25</v>
+      </c>
       <c r="F23" s="36"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5923,7 +5928,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4301.75</v>
+        <v>4327</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9101,7 +9106,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9626,7 +9631,9 @@
         <v>46036</v>
       </c>
       <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="D23" s="36">
+        <v>365.5</v>
+      </c>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
       <c r="G23" s="1"/>
@@ -10089,7 +10096,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1659.25</v>
+        <v>2024.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB615E3E-2AA5-46A8-9F61-D139A993E170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA344FA1-B1CC-402A-A37B-A75D114153A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1312,7 +1312,9 @@
         <v>46037</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13">
+        <v>32</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
@@ -1336,7 +1338,9 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>126.63</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1752,11 +1756,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>47259.25</v>
+        <v>47291.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>512.5</v>
+        <v>639.13</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4934,7 +4938,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5484,7 +5488,9 @@
         <v>46037</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13">
+        <v>2.75</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
@@ -5508,7 +5514,9 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>512</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5924,11 +5932,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>4690.91</v>
+        <v>4693.66</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4327</v>
+        <v>4839</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9106,7 +9114,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9656,7 +9664,9 @@
         <v>46037</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13">
+        <v>443</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="11"/>
       <c r="G24" s="1"/>
@@ -9679,7 +9689,9 @@
         <v>46038</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>1248.5</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
       <c r="G25" s="1"/>
@@ -10096,7 +10108,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>2024.75</v>
+        <v>3716.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA344FA1-B1CC-402A-A37B-A75D114153A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA20763F-E6A5-4D77-A925-8747625B0059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1363,7 +1363,9 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="E26" s="37">
+        <v>510.5</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1760,7 +1762,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>639.13</v>
+        <v>1149.6300000000001</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4938,7 +4940,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5538,7 +5540,9 @@
         <v>46039</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="36"/>
+      <c r="D26" s="36">
+        <v>2695.25</v>
+      </c>
       <c r="E26" s="36"/>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
@@ -5932,7 +5936,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>4693.66</v>
+        <v>7388.91</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9114,7 +9118,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9714,7 +9718,9 @@
         <v>46039</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="36"/>
+      <c r="D26" s="36">
+        <v>437.25</v>
+      </c>
       <c r="E26" s="36"/>
       <c r="F26" s="11"/>
       <c r="G26" s="1"/>
@@ -10108,7 +10114,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>3716.25</v>
+        <v>4153.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA20763F-E6A5-4D77-A925-8747625B0059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395FA4C-16C1-4843-B9AF-FB9B48591E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1413,7 +1413,9 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12">
+        <v>134</v>
+      </c>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1762,7 +1764,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1149.6300000000001</v>
+        <v>1283.6300000000001</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4940,7 +4942,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5591,7 +5593,9 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12">
+        <v>8</v>
+      </c>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -5940,7 +5944,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4839</v>
+        <v>4847</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9118,7 +9122,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9769,7 +9773,9 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="12">
+        <v>309.5</v>
+      </c>
       <c r="F28" s="35"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -10118,7 +10124,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4721.5</v>
+        <v>5031</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395FA4C-16C1-4843-B9AF-FB9B48591E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89647A13-0A56-4B88-8E78-E4279DB1EB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1438,7 +1438,9 @@
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>64</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1764,7 +1766,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1283.6300000000001</v>
+        <v>1347.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4942,7 +4944,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5618,7 +5620,9 @@
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>48.25</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -5944,7 +5948,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4847</v>
+        <v>4895.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9122,7 +9126,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9798,7 +9802,9 @@
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="12">
+        <v>547.25</v>
+      </c>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -10124,7 +10130,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5031</v>
+        <v>5578.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89647A13-0A56-4B88-8E78-E4279DB1EB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D29D01-DC76-4241-AF36-3A99DD77E33B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -9125,8 +9125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9801,10 +9801,10 @@
         <v>46042</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="12">
-        <v>547.25</v>
-      </c>
+      <c r="D29" s="15">
+        <v>102.75</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="34"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -10126,11 +10126,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>4153.5</v>
+        <v>4256.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5578.25</v>
+        <v>5031</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D29D01-DC76-4241-AF36-3A99DD77E33B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC98F6B9-9883-4DC3-BDA9-D94ED204FBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1463,7 +1463,9 @@
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="E30" s="37">
+        <v>559</v>
+      </c>
       <c r="F30" s="36"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1766,7 +1768,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1347.63</v>
+        <v>1906.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4944,7 +4946,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5645,7 +5647,9 @@
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="E30" s="37">
+        <v>92</v>
+      </c>
       <c r="F30" s="36"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -5948,7 +5952,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4895.25</v>
+        <v>4987.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9125,8 +9129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9827,7 +9831,9 @@
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="E30" s="37">
+        <v>70.75</v>
+      </c>
       <c r="F30" s="36"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -10130,7 +10136,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5031</v>
+        <v>5101.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC98F6B9-9883-4DC3-BDA9-D94ED204FBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3E498-0BAE-4F5C-A50B-C943FE3EC644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -761,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1462,10 +1462,10 @@
         <v>46043</v>
       </c>
       <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="37">
-        <v>559</v>
-      </c>
+      <c r="D30" s="36">
+        <v>202</v>
+      </c>
+      <c r="E30" s="37"/>
       <c r="F30" s="36"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1764,11 +1764,11 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>47291.25</v>
+        <v>47493.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1906.63</v>
+        <v>1347.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9129,7 +9129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3E498-0BAE-4F5C-A50B-C943FE3EC644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC9ACE-B715-4536-BCB2-DAE60A0EDA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1488,7 +1488,9 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="12">
+        <v>293.5</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1768,7 +1770,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1347.63</v>
+        <v>1641.13</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4946,7 +4948,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5671,7 +5673,9 @@
         <v>46044</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="13">
+        <v>68.5</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
@@ -5948,7 +5952,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>7388.91</v>
+        <v>7457.41</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9130,7 +9134,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9855,7 +9859,9 @@
         <v>46044</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="13">
+        <v>1668</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="1"/>
@@ -10132,7 +10138,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>4256.25</v>
+        <v>5924.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC9ACE-B715-4536-BCB2-DAE60A0EDA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70399392-C7B9-416C-B040-C338938C38B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1513,7 +1513,9 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <v>32.25</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1770,7 +1772,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1641.13</v>
+        <v>1673.38</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4948,7 +4950,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5699,7 +5701,9 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <v>863</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -5956,7 +5960,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>4987.25</v>
+        <v>5850.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9133,8 +9137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9884,8 +9888,10 @@
         <v>46045</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="40"/>
       <c r="F32" s="11"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -13301,12 +13307,13 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70399392-C7B9-416C-B040-C338938C38B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF038EC6-3C6B-45A5-8247-45C6F73DFF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1537,7 +1537,9 @@
         <v>46046</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="36"/>
+      <c r="D33" s="36">
+        <v>427</v>
+      </c>
       <c r="E33" s="35"/>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
@@ -1768,7 +1770,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>47493.25</v>
+        <v>47920.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4950,7 +4952,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5726,7 +5728,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
+      <c r="E33" s="38">
+        <v>284</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -5960,7 +5964,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5850.25</v>
+        <v>6134.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9137,8 +9141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9914,7 +9918,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
+      <c r="E33" s="38">
+        <v>20</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -10148,7 +10154,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5101.75</v>
+        <v>5121.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF038EC6-3C6B-45A5-8247-45C6F73DFF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59549B51-12D7-4A0B-9DD2-6E9F562F00BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1588,7 +1588,9 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12">
+        <v>908.75</v>
+      </c>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1774,7 +1776,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1673.38</v>
+        <v>2582.13</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4951,8 +4953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5777,7 +5779,9 @@
         <v>46048</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="13">
+        <v>24.5</v>
+      </c>
       <c r="E35" s="12"/>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
@@ -5960,7 +5964,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>7457.41</v>
+        <v>7481.91</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9141,8 +9145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9968,7 +9972,9 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="12">
+        <v>1222.5</v>
+      </c>
       <c r="F35" s="35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -10154,7 +10160,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>5121.75</v>
+        <v>6344.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59549B51-12D7-4A0B-9DD2-6E9F562F00BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29121D9-1C15-421F-8A95-450F1A96B5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1613,7 +1613,9 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12">
+        <v>137</v>
+      </c>
       <c r="F36" s="35"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1776,7 +1778,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2582.13</v>
+        <v>2719.13</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4953,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5805,7 +5807,9 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12">
+        <v>291.5</v>
+      </c>
       <c r="F36" s="35"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -5968,7 +5972,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>6134.25</v>
+        <v>6425.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9145,8 +9149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9997,7 +10001,9 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="12">
+        <v>5112.25</v>
+      </c>
       <c r="F36" s="35"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -10160,7 +10166,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>6344.25</v>
+        <v>11456.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29121D9-1C15-421F-8A95-450F1A96B5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66D6D1C-DAC4-417B-99E3-C2CCBC898A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1637,7 +1637,9 @@
         <v>46050</v>
       </c>
       <c r="C37" s="27"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="15">
+        <v>830</v>
+      </c>
       <c r="E37" s="12"/>
       <c r="F37" s="34"/>
       <c r="G37" s="1"/>
@@ -1774,7 +1776,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>47920.25</v>
+        <v>48750.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4955,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5832,7 +5834,9 @@
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="12">
+        <v>87.75</v>
+      </c>
       <c r="F37" s="34"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -5972,7 +5976,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>6425.75</v>
+        <v>6513.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9149,8 +9153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10026,7 +10030,9 @@
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="12">
+        <v>102</v>
+      </c>
       <c r="F37" s="34"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -10166,7 +10172,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>11456.5</v>
+        <v>11558.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66D6D1C-DAC4-417B-99E3-C2CCBC898A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF68ED1-4657-4B6B-8C00-E85DBDE49857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1662,7 +1662,9 @@
         <v>46051</v>
       </c>
       <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="36">
+        <v>97.5</v>
+      </c>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
       <c r="G38" s="1"/>
@@ -1776,7 +1778,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>48750.25</v>
+        <v>48847.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4957,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5858,7 +5860,9 @@
         <v>46051</v>
       </c>
       <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="36">
+        <v>202.5</v>
+      </c>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
       <c r="G38" s="1"/>
@@ -5972,7 +5976,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>7481.91</v>
+        <v>7684.41</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9153,8 +9157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10054,7 +10058,9 @@
         <v>46051</v>
       </c>
       <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="36">
+        <v>3428.5</v>
+      </c>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
       <c r="G38" s="1"/>
@@ -10168,7 +10174,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>5924.25</v>
+        <v>9352.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF68ED1-4657-4B6B-8C00-E85DBDE49857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7BB04D-0004-46CB-873E-2FDAC35ED77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7BB04D-0004-46CB-873E-2FDAC35ED77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA869CC1-DFA5-481E-A4D8-0B4849AFB04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1687,8 +1687,10 @@
         <v>46052</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="40"/>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4941,7 +4943,8 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
@@ -4959,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5885,8 +5888,10 @@
         <v>46052</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="40"/>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -9139,7 +9144,8 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
@@ -9157,8 +9163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10083,7 +10089,9 @@
         <v>46052</v>
       </c>
       <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="13">
+        <v>1068.5</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="11"/>
       <c r="G39" s="1"/>
@@ -10174,7 +10182,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>9352.75</v>
+        <v>10421.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/SHORT OVER ALL ROUTES - JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA869CC1-DFA5-481E-A4D8-0B4849AFB04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8559B6EF-8176-40C8-A196-6B1CC74F9886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1713,7 +1713,9 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12">
+        <v>288.5</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1784,7 +1786,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>2719.13</v>
+        <v>3007.63</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4962,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574FF03-14F0-421D-8F76-5519CF1A2460}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:E39"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5914,7 +5916,9 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="12">
+        <v>115.5</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -5985,7 +5989,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>6513.5</v>
+        <v>6629</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9163,8 +9167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10114,7 +10118,9 @@
         <v>46053</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="15">
+        <v>1416.25</v>
+      </c>
       <c r="E40" s="12"/>
       <c r="F40" s="11"/>
       <c r="G40" s="1"/>
@@ -10182,7 +10188,7 @@
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>10421.25</v>
+        <v>11837.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
